--- a/Test/Lawnmower/T2/Sensors_data_1000012.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000012.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.989516372949491</v>
+        <v>0.9259098669487823</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004207579941234744</v>
+        <v>0.002274970839102299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007066034938555954</v>
+        <v>0.09273429837874125</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.972385960640113</v>
+        <v>0.2506960178757911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1033532878390346</v>
+        <v>0.0355033044863738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03949693141466271</v>
+        <v>0.6169679668985044</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9946446751641773</v>
+        <v>0.09898178763381149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003289880466569284</v>
+        <v>0.04019773608722275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2156891666147767</v>
+        <v>0.7109117517892698</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,43 +550,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9849528371486538</v>
+        <v>0.9858170772102982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008340780096591083</v>
+        <v>0.0004311342927990725</v>
       </c>
       <c r="E5" t="n">
-        <v>0.300135530890682</v>
+        <v>0.03437006770029594</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9601331341260085</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001619854173324303</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01961980216424764</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
